--- a/Preise_Teile.xlsx
+++ b/Preise_Teile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Cuy'val Dar Datenbank\Projekte\_Projekt maske EAGLE []\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DJI Mini 4 Pro Träger MK1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6196A1-D009-4B53-98F6-2102101592A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637759C-6D7F-402B-B714-26C6BC25BFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="5565" windowWidth="38700" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Preise</t>
   </si>
@@ -59,18 +59,12 @@
     <t>Anbieter:</t>
   </si>
   <si>
-    <t xml:space="preserve">Projekt: </t>
-  </si>
-  <si>
     <t>3D-Drucker Matherial Grau PLA 1,75mm (€/g)</t>
   </si>
   <si>
     <t>3D-Drucker Laufzeitkosten (€/h)</t>
   </si>
   <si>
-    <t>Stadtwerke</t>
-  </si>
-  <si>
     <t>BambuLab: 11102</t>
   </si>
   <si>
@@ -78,15 +72,97 @@
   </si>
   <si>
     <t>BambuLab: 11101</t>
+  </si>
+  <si>
+    <t>Projekt: DJI Mini 4 Pro Träger MK1</t>
+  </si>
+  <si>
+    <t>Hauptboard V1.0 [x5]</t>
+  </si>
+  <si>
+    <t>PIC16F18323</t>
+  </si>
+  <si>
+    <t>SML-H10TBT86</t>
+  </si>
+  <si>
+    <t>Widerstand 10k (0805)</t>
+  </si>
+  <si>
+    <t>Farnell: 1575900 / Mouser: 603-RC0805JR-0710KL</t>
+  </si>
+  <si>
+    <t>Kondensator 100nF (0805)</t>
+  </si>
+  <si>
+    <t>Farnell: 1833888 / Mouser: 710-885382207007</t>
+  </si>
+  <si>
+    <t>Buchse PicoEZmate 5polig (Molex:78171-0005)</t>
+  </si>
+  <si>
+    <t>Mouser: 538-78171-0005</t>
+  </si>
+  <si>
+    <t>USB-C Buchse (Molex: 216990-0003)</t>
+  </si>
+  <si>
+    <t>Mouser: 538-216990-0003</t>
+  </si>
+  <si>
+    <t>SF-0603S (SMD Sicherung)</t>
+  </si>
+  <si>
+    <t>Farnell: 1652144 / Mouser: 652-SF-0603S300-2</t>
+  </si>
+  <si>
+    <t>Widerstand 5,1k (0805)</t>
+  </si>
+  <si>
+    <t>Mouser: 755-KTR10EZPF5101</t>
+  </si>
+  <si>
+    <t>Mouser: 579-PIC16F18323TI/SL</t>
+  </si>
+  <si>
+    <t>Mouser: 755-SML-H10TBT86</t>
+  </si>
+  <si>
+    <t>ruthex Gewindeeinsätze M2 [x70]</t>
+  </si>
+  <si>
+    <t>Amazon: B088QJG676</t>
+  </si>
+  <si>
+    <t>ruthex Gewindeeinsätze M3S [x100]</t>
+  </si>
+  <si>
+    <t>Amazon: B09ZHSGHXD</t>
+  </si>
+  <si>
+    <t>Innensechkantschrauben M2 x 5mm [x100]</t>
+  </si>
+  <si>
+    <t>Amazon: B07MT4C7CH</t>
+  </si>
+  <si>
+    <t>Innensechkantsenkschrauben M3 x 8mm [x150]</t>
+  </si>
+  <si>
+    <t>Amazon: B0D9D8M489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JLCPCB: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000\ &quot;€&quot;;[Red]\-#,##0.0000\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000\ &quot;€&quot;;[Red]\-#,##0.0000\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -168,11 +244,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
@@ -527,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -574,33 +651,35 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>17</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3">
         <f>30.93/1000</f>
         <v>3.0929999999999999E-2</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F8" si="0">E5*B5</f>
-        <v>0</v>
+        <f t="shared" ref="F5:F7" si="0">E5*B5</f>
+        <v>0.52581</v>
       </c>
       <c r="H5" s="3">
-        <f>SUM(F5:F20)</f>
-        <v>0</v>
+        <f>SUM(F5:F90)</f>
+        <v>7.2154576190476192</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
         <f>30.93/1000</f>
@@ -612,19 +691,19 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1.2</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="4">
         <v>0.01</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -632,130 +711,322 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.94099999999999995</v>
+      </c>
       <c r="F9" s="3">
-        <f t="shared" ref="F9:F20" si="2">E9*B9</f>
-        <v>0</v>
+        <f t="shared" ref="F9:F19" si="2">E9*B9</f>
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.09</v>
+      </c>
       <c r="F10" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.11</v>
+      </c>
       <c r="F11" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.39</v>
+      </c>
       <c r="F12" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.85</v>
+      </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.73</v>
+      </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.08</v>
+      </c>
       <c r="F16" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.09</v>
+      </c>
       <c r="F18" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.7</v>
+      </c>
       <c r="F19" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F21" s="3">
+        <f>E21/5</f>
+        <v>0.40599999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="5">
+        <v>8.99</v>
+      </c>
+      <c r="F24" s="3">
+        <f>(E24/70)*B24</f>
+        <v>0.51371428571428568</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="5">
+        <v>8.99</v>
+      </c>
+      <c r="F25" s="3">
+        <f>(E25/100)*B25</f>
+        <v>0.71920000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="5">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F27" s="3">
+        <f>(E27/100)*B27</f>
+        <v>0.37799999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5.99</v>
+      </c>
+      <c r="F28" s="3">
+        <f>(E28/150)*B28</f>
+        <v>0.15973333333333334</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
